--- a/ru/downloads/data-excel/2.1.1.1e.xlsx
+++ b/ru/downloads/data-excel/2.1.1.1e.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -554,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,7 +564,7 @@
     <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -584,7 +584,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -604,7 +604,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -618,8 +618,9 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -659,8 +660,11 @@
       <c r="M4" s="5">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+      <c r="N4" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
@@ -698,10 +702,13 @@
         <v>65.742251223491024</v>
       </c>
       <c r="M5" s="10">
-        <v>69.168026101141919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.2">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="N5" s="10">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -739,10 +746,13 @@
         <v>109.4</v>
       </c>
       <c r="M6" s="10">
-        <v>109.85000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>108.2</v>
+      </c>
+      <c r="N6" s="10">
+        <v>106.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
@@ -780,10 +790,13 @@
         <v>47.342465753424662</v>
       </c>
       <c r="M7" s="10">
-        <v>52.219178082191775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>51.7</v>
+      </c>
+      <c r="N7" s="10">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
@@ -821,10 +834,13 @@
         <v>115.234375</v>
       </c>
       <c r="M8" s="10">
-        <v>98.437499999999986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>97.7</v>
+      </c>
+      <c r="N8" s="10">
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -859,13 +875,16 @@
         <v>112.81489594742607</v>
       </c>
       <c r="L9" s="10">
-        <v>104.052573932092</v>
+        <v>105.6</v>
       </c>
       <c r="M9" s="10">
-        <v>106.24315443592552</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>106.7</v>
+      </c>
+      <c r="N9" s="10">
+        <v>108.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -903,10 +922,13 @@
         <v>141.98782961460446</v>
       </c>
       <c r="M10" s="10">
-        <v>125.55780933062881</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>124.2</v>
+      </c>
+      <c r="N10" s="10">
+        <v>107.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
@@ -944,10 +966,13 @@
         <v>158.88013998250219</v>
       </c>
       <c r="M11" s="10">
-        <v>140.24496937882768</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="N11" s="10">
+        <v>155.69999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
@@ -982,13 +1007,16 @@
         <v>34.5</v>
       </c>
       <c r="L12" s="10">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="M12" s="10">
-        <v>34.195634599838314</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>33.9</v>
+      </c>
+      <c r="N12" s="10">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -1026,10 +1054,13 @@
         <v>99.071585634009267</v>
       </c>
       <c r="M13" s="10">
-        <v>96.994869289030063</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="N13" s="10">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -1067,10 +1098,14 @@
         <v>8.791208791208792</v>
       </c>
       <c r="M14" s="12">
-        <v>6.593406593406594</v>
+        <v>7.7</v>
+      </c>
+      <c r="N14" s="12">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ru/downloads/data-excel/2.1.1.1e.xlsx
+++ b/ru/downloads/data-excel/2.1.1.1e.xlsx
@@ -554,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,7 +564,7 @@
     <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -584,7 +584,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -604,7 +604,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -619,8 +619,9 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -663,8 +664,11 @@
       <c r="N4" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+      <c r="O4" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
@@ -707,8 +711,11 @@
       <c r="N5" s="10">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+      <c r="O5" s="10">
+        <v>70.636215334420882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="24" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -751,8 +758,11 @@
       <c r="N6" s="10">
         <v>106.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="10">
+        <v>107.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
@@ -795,8 +805,11 @@
       <c r="N7" s="10">
         <v>53.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="10">
+        <v>55.452054794520542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
@@ -839,8 +852,11 @@
       <c r="N8" s="10">
         <v>49.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="10">
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -883,8 +899,11 @@
       <c r="N9" s="10">
         <v>108.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="10">
+        <v>120.48192771084337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -927,8 +946,11 @@
       <c r="N10" s="10">
         <v>107.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="10">
+        <v>109.53346855983774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
@@ -971,8 +993,11 @@
       <c r="N11" s="10">
         <v>155.69999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="10">
+        <v>147.7690288713911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
@@ -1015,8 +1040,11 @@
       <c r="N12" s="10">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="10">
+        <v>25.545675020210183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -1059,8 +1087,11 @@
       <c r="N13" s="10">
         <v>103.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="10">
+        <v>82.457854874175425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -1102,6 +1133,9 @@
       </c>
       <c r="N14" s="12">
         <v>11</v>
+      </c>
+      <c r="O14" s="12">
+        <v>15.384615384615385</v>
       </c>
     </row>
   </sheetData>

--- a/ru/downloads/data-excel/2.1.1.1e.xlsx
+++ b/ru/downloads/data-excel/2.1.1.1e.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterate="1" iterateCount="1000" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -554,9 +554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -564,7 +566,7 @@
     <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -584,7 +586,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -604,7 +606,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -620,8 +622,9 @@
       <c r="M3" s="3"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
-    </row>
-    <row r="4" spans="1:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -667,8 +670,11 @@
       <c r="O4" s="5">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+      <c r="P4" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
@@ -685,37 +691,40 @@
         <v>63.132137030995118</v>
       </c>
       <c r="F5" s="10">
-        <v>60.195758564437199</v>
+        <v>61.011419249592166</v>
       </c>
       <c r="G5" s="10">
-        <v>55.138662316476342</v>
+        <v>55.628058727569339</v>
       </c>
       <c r="H5" s="10">
-        <v>56.443719412724313</v>
+        <v>57.748776508972263</v>
       </c>
       <c r="I5" s="10">
+        <v>66.068515497553022</v>
+      </c>
+      <c r="J5" s="10">
+        <v>64.763458401305058</v>
+      </c>
+      <c r="K5" s="10">
         <v>64.600326264274059</v>
       </c>
-      <c r="J5" s="10">
-        <v>63.132137030995118</v>
-      </c>
-      <c r="K5" s="10">
-        <v>62.805872756933127</v>
-      </c>
       <c r="L5" s="10">
-        <v>65.742251223491024</v>
+        <v>76.508972267536706</v>
       </c>
       <c r="M5" s="10">
-        <v>68.400000000000006</v>
+        <v>71.125611745513879</v>
       </c>
       <c r="N5" s="10">
-        <v>68.5</v>
+        <v>70.96247960848288</v>
       </c>
       <c r="O5" s="10">
-        <v>70.636215334420882</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+        <v>72.920065252854812</v>
+      </c>
+      <c r="P5" s="10">
+        <v>76.508972267536706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="24" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -732,37 +741,40 @@
         <v>106.5</v>
       </c>
       <c r="F6" s="10">
-        <v>105.75000000000001</v>
+        <v>107.1</v>
       </c>
       <c r="G6" s="10">
-        <v>107.5</v>
+        <v>109.25</v>
       </c>
       <c r="H6" s="10">
-        <v>107.80000000000001</v>
+        <v>109.89999999999999</v>
       </c>
       <c r="I6" s="10">
-        <v>113.14999999999999</v>
+        <v>115.75</v>
       </c>
       <c r="J6" s="10">
-        <v>112.25</v>
+        <v>115.14999999999999</v>
       </c>
       <c r="K6" s="10">
-        <v>111.65</v>
+        <v>114.8</v>
       </c>
       <c r="L6" s="10">
-        <v>109.4</v>
+        <v>112.15000000000002</v>
       </c>
       <c r="M6" s="10">
-        <v>108.2</v>
+        <v>110.6</v>
       </c>
       <c r="N6" s="10">
-        <v>106.7</v>
+        <v>109.3</v>
       </c>
       <c r="O6" s="10">
-        <v>107.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>110.94999999999999</v>
+      </c>
+      <c r="P6" s="10">
+        <v>110.15000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
@@ -779,37 +791,40 @@
         <v>45.041095890410958</v>
       </c>
       <c r="F7" s="10">
-        <v>44.273972602739725</v>
+        <v>44.821917808219176</v>
       </c>
       <c r="G7" s="10">
-        <v>45.479452054794521</v>
+        <v>46.246575342465754</v>
       </c>
       <c r="H7" s="10">
-        <v>44.767123287671232</v>
+        <v>45.643835616438352</v>
       </c>
       <c r="I7" s="10">
-        <v>47.287671232876711</v>
+        <v>48.328767123287676</v>
       </c>
       <c r="J7" s="10">
-        <v>43.835616438356162</v>
+        <v>44.986301369863014</v>
       </c>
       <c r="K7" s="10">
-        <v>47.12328767123288</v>
+        <v>48.493150684931507</v>
       </c>
       <c r="L7" s="10">
-        <v>47.342465753424662</v>
+        <v>48.876712328767127</v>
       </c>
       <c r="M7" s="10">
-        <v>51.7</v>
+        <v>53.424657534246577</v>
       </c>
       <c r="N7" s="10">
-        <v>53.2</v>
+        <v>55.178082191780817</v>
       </c>
       <c r="O7" s="10">
-        <v>55.452054794520542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>56.821917808219183</v>
+      </c>
+      <c r="P7" s="10">
+        <v>66.630136986301366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
@@ -826,37 +841,40 @@
         <v>83.593749999999986</v>
       </c>
       <c r="F8" s="10">
-        <v>78.125</v>
+        <v>79.296875</v>
       </c>
       <c r="G8" s="10">
-        <v>82.03125</v>
+        <v>83.203125</v>
       </c>
       <c r="H8" s="10">
-        <v>76.953124999999986</v>
+        <v>78.515625</v>
       </c>
       <c r="I8" s="10">
-        <v>71.874999999999986</v>
+        <v>73.4375</v>
       </c>
       <c r="J8" s="10">
-        <v>85.9375</v>
+        <v>88.28125</v>
       </c>
       <c r="K8" s="10">
-        <v>89.0625</v>
+        <v>91.406249999999986</v>
       </c>
       <c r="L8" s="10">
-        <v>115.234375</v>
+        <v>99.609375</v>
       </c>
       <c r="M8" s="10">
-        <v>97.7</v>
+        <v>98.437499999999986</v>
       </c>
       <c r="N8" s="10">
-        <v>49.6</v>
+        <v>62.890625</v>
       </c>
       <c r="O8" s="10">
-        <v>84.375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>92.578124999999986</v>
+      </c>
+      <c r="P8" s="10">
+        <v>102.34375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -873,37 +891,40 @@
         <v>129.24424972617743</v>
       </c>
       <c r="F9" s="10">
-        <v>118.29134720700985</v>
+        <v>119.38663745892661</v>
       </c>
       <c r="G9" s="10">
-        <v>136.91128148959473</v>
+        <v>139.10186199342826</v>
       </c>
       <c r="H9" s="10">
-        <v>139.10186199342826</v>
+        <v>141.29244249726176</v>
       </c>
       <c r="I9" s="10">
-        <v>140.19715224534502</v>
+        <v>148.95947426067906</v>
       </c>
       <c r="J9" s="10">
+        <v>119.38663745892661</v>
+      </c>
+      <c r="K9" s="10">
         <v>116.10076670317633</v>
       </c>
-      <c r="K9" s="10">
-        <v>112.81489594742607</v>
-      </c>
       <c r="L9" s="10">
-        <v>105.6</v>
+        <v>124.8630887185104</v>
       </c>
       <c r="M9" s="10">
-        <v>106.7</v>
+        <v>134.72070098576123</v>
       </c>
       <c r="N9" s="10">
-        <v>108.9</v>
+        <v>166.48411829134719</v>
       </c>
       <c r="O9" s="10">
-        <v>120.48192771084337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>167.57940854326395</v>
+      </c>
+      <c r="P9" s="10">
+        <v>187.29463307776561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -920,37 +941,40 @@
         <v>99.494949494949495</v>
       </c>
       <c r="F10" s="10">
-        <v>99.393939393939405</v>
+        <v>101.11561866125763</v>
       </c>
       <c r="G10" s="10">
-        <v>99.494949494949495</v>
+        <v>101.52129817444219</v>
       </c>
       <c r="H10" s="10">
-        <v>99.494949494949495</v>
+        <v>101.82555780933065</v>
       </c>
       <c r="I10" s="10">
-        <v>108.28282828282829</v>
+        <v>111.15618661257606</v>
       </c>
       <c r="J10" s="10">
-        <v>108.28282828282829</v>
+        <v>111.56186612576064</v>
       </c>
       <c r="K10" s="10">
-        <v>107.7</v>
+        <v>111.25760649087222</v>
       </c>
       <c r="L10" s="10">
-        <v>141.98782961460446</v>
+        <v>146.45030425963489</v>
       </c>
       <c r="M10" s="10">
-        <v>124.2</v>
+        <v>128.39756592292088</v>
       </c>
       <c r="N10" s="10">
-        <v>107.8</v>
+        <v>107.80933062880325</v>
       </c>
       <c r="O10" s="10">
         <v>109.53346855983774</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="10">
+        <v>107.20081135902637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
@@ -967,37 +991,40 @@
         <v>131.19999999999999</v>
       </c>
       <c r="F11" s="10">
-        <v>131.05263157894737</v>
+        <v>132.37095363079615</v>
       </c>
       <c r="G11" s="10">
-        <v>130.70175438596493</v>
+        <v>132.45844269466318</v>
       </c>
       <c r="H11" s="10">
-        <v>131.57894736842107</v>
+        <v>133.59580052493439</v>
       </c>
       <c r="I11" s="10">
-        <v>139.4736842105263</v>
+        <v>142.25721784776903</v>
       </c>
       <c r="J11" s="10">
-        <v>141.40350877192981</v>
+        <v>144.61942257217851</v>
       </c>
       <c r="K11" s="10">
-        <v>153</v>
+        <v>156.95538057742783</v>
       </c>
       <c r="L11" s="10">
-        <v>158.88013998250219</v>
+        <v>163.95450568678916</v>
       </c>
       <c r="M11" s="10">
-        <v>138.80000000000001</v>
+        <v>143.48206474190727</v>
       </c>
       <c r="N11" s="10">
-        <v>155.69999999999999</v>
+        <v>161.41732283464566</v>
       </c>
       <c r="O11" s="10">
-        <v>147.7690288713911</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>152.1434820647419</v>
+      </c>
+      <c r="P11" s="10">
+        <v>155.38057742782152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
@@ -1014,37 +1041,40 @@
         <v>23.225806451612904</v>
       </c>
       <c r="F12" s="10">
-        <v>19.274193548387096</v>
+        <v>19.563459983831848</v>
       </c>
       <c r="G12" s="10">
-        <v>21.612903225806452</v>
+        <v>23.686337914308812</v>
       </c>
       <c r="H12" s="10">
-        <v>23.467741935483872</v>
+        <v>24.00970088924818</v>
       </c>
       <c r="I12" s="10">
-        <v>25.161290322580644</v>
+        <v>26.434923201293454</v>
       </c>
       <c r="J12" s="10">
-        <v>34.91935483870968</v>
+        <v>35.89329021827001</v>
       </c>
       <c r="K12" s="10">
-        <v>34.5</v>
+        <v>35.569927243330639</v>
       </c>
       <c r="L12" s="10">
-        <v>27.1</v>
+        <v>27.081649151172186</v>
       </c>
       <c r="M12" s="10">
-        <v>33.9</v>
+        <v>33.87227162489895</v>
       </c>
       <c r="N12" s="10">
-        <v>25.9</v>
+        <v>26.919967663702504</v>
       </c>
       <c r="O12" s="10">
-        <v>25.545675020210183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>26.273241713823765</v>
+      </c>
+      <c r="P12" s="10">
+        <v>36.054971705739689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -1061,37 +1091,40 @@
         <v>146.49279257268506</v>
       </c>
       <c r="F13" s="10">
-        <v>145.7121915465429</v>
+        <v>147.56902027852431</v>
       </c>
       <c r="G13" s="10">
+        <v>150.25653554849742</v>
+      </c>
+      <c r="H13" s="10">
+        <v>150.37869533349621</v>
+      </c>
+      <c r="I13" s="10">
+        <v>149.03493769850965</v>
+      </c>
+      <c r="J13" s="10">
         <v>147.44686049352552</v>
       </c>
-      <c r="H13" s="10">
-        <v>147.44686049352552</v>
-      </c>
-      <c r="I13" s="10">
-        <v>146.57952602003419</v>
-      </c>
-      <c r="J13" s="10">
-        <v>143.65990715856341</v>
-      </c>
       <c r="K13" s="10">
-        <v>129.85585145370143</v>
+        <v>133.64280478866357</v>
       </c>
       <c r="L13" s="10">
-        <v>99.071585634009267</v>
+        <v>102.12558025897873</v>
       </c>
       <c r="M13" s="10">
-        <v>96</v>
+        <v>99.315905204006839</v>
       </c>
       <c r="N13" s="10">
-        <v>103.5</v>
+        <v>107.37845101392622</v>
       </c>
       <c r="O13" s="10">
-        <v>82.457854874175425</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>85.023210359149758</v>
+      </c>
+      <c r="P13" s="10">
+        <v>106.76765208893232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -1108,7 +1141,7 @@
         <v>20.87912087912088</v>
       </c>
       <c r="F14" s="11">
-        <v>20.87912087912088</v>
+        <v>21.978021978021978</v>
       </c>
       <c r="G14" s="11">
         <v>20.87912087912088</v>
@@ -1120,22 +1153,25 @@
         <v>20.87912087912088</v>
       </c>
       <c r="J14" s="11">
-        <v>9.6029093230665854</v>
+        <v>10.989010989010989</v>
       </c>
       <c r="K14" s="11">
-        <v>9.8901098901098905</v>
+        <v>10.989010989010989</v>
       </c>
       <c r="L14" s="11">
-        <v>8.791208791208792</v>
+        <v>12.087912087912089</v>
       </c>
       <c r="M14" s="12">
-        <v>7.7</v>
+        <v>6.593406593406594</v>
       </c>
       <c r="N14" s="12">
-        <v>11</v>
+        <v>10.989010989010989</v>
       </c>
       <c r="O14" s="12">
         <v>15.384615384615385</v>
+      </c>
+      <c r="P14" s="12">
+        <v>32.967032967032964</v>
       </c>
     </row>
   </sheetData>

--- a/ru/downloads/data-excel/2.1.1.1e.xlsx
+++ b/ru/downloads/data-excel/2.1.1.1e.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -554,11 +554,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -566,7 +564,7 @@
     <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
@@ -586,7 +584,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -606,7 +604,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -623,8 +621,9 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -673,8 +672,11 @@
       <c r="P4" s="5">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="Q4" s="5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
@@ -723,8 +725,11 @@
       <c r="P5" s="10">
         <v>76.508972267536706</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+      <c r="Q5" s="10">
+        <v>74.605426356589135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>30</v>
       </c>
@@ -773,8 +778,11 @@
       <c r="P6" s="10">
         <v>110.15000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="10">
+        <v>118.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
@@ -823,8 +831,11 @@
       <c r="P7" s="10">
         <v>66.630136986301366</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="10">
+        <v>71.61643835616438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>32</v>
       </c>
@@ -873,8 +884,11 @@
       <c r="P8" s="10">
         <v>102.34375</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="10">
+        <v>95.703125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
@@ -923,8 +937,11 @@
       <c r="P9" s="10">
         <v>187.29463307776561</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="10">
+        <v>113.91018619934282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -973,8 +990,11 @@
       <c r="P10" s="10">
         <v>107.20081135902637</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="10">
+        <v>108.21501014198785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
@@ -1023,8 +1043,11 @@
       <c r="P11" s="10">
         <v>155.38057742782152</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="10">
+        <v>165.26684164479443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
@@ -1073,8 +1096,11 @@
       <c r="P12" s="10">
         <v>36.054971705739689</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="10">
+        <v>48.504446240905416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -1123,8 +1149,11 @@
       <c r="P13" s="10">
         <v>106.76765208893232</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="10">
+        <v>97.361348644026393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
@@ -1172,6 +1201,9 @@
       </c>
       <c r="P14" s="12">
         <v>32.967032967032964</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>52.747252747252752</v>
       </c>
     </row>
   </sheetData>
